--- a/SuppXLS/Scen_DemProj_Temp.xlsx
+++ b/SuppXLS/Scen_DemProj_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B922BC57-8050-4422-80E2-0E61E8C3F5DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E166398-5A91-4664-A886-AE3BD3989793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="ELC_Dem" sheetId="21" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_TAB21">#REF!</definedName>
     <definedName name="I_alku">"1.1."</definedName>
     <definedName name="I_loppu">"31.3."</definedName>
     <definedName name="II_alku">"1.4."</definedName>
@@ -26,8 +25,6 @@
     <definedName name="III_loppu">"30.9."</definedName>
     <definedName name="IV_alku">"1.10."</definedName>
     <definedName name="IV_loppu">"31.12."</definedName>
-    <definedName name="kuva">#REF!</definedName>
-    <definedName name="taulukko">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1313,6 +1310,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -1458,12 +1461,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32FAB2A-D8B9-42B8-BDE0-065127985965}">
   <ds:schemaRefs>
@@ -1473,6 +1470,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5D7560-5BF9-4AD9-955B-8A41683BA735}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3208C1D9-E8C2-4306-AEB7-F2861FF363C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1488,13 +1494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5D7560-5BF9-4AD9-955B-8A41683BA735}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>